--- a/biology/Botanique/Jules_Buyssens/Jules_Buyssens.xlsx
+++ b/biology/Botanique/Jules_Buyssens/Jules_Buyssens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Buyssens, né le 8 décembre 1872 à Waermaerde et mort le 15 avril 1958 à Uccle, est un architecte paysagiste belge, architecte en chef des parcs et jardins de la ville de Bruxelles entre les deux guerres, rénovateur de l'art des jardins en Belgique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Architecte de jardins, mais aussi aquarelliste et compositeur de musique, membre correspondant de la Commission royale des monuments et des sites, Jules Buyssens expose dès 1903 à toutes les Floralies de Gand[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Architecte de jardins, mais aussi aquarelliste et compositeur de musique, membre correspondant de la Commission royale des monuments et des sites, Jules Buyssens expose dès 1903 à toutes les Floralies de Gand.
 </t>
         </is>
       </c>
@@ -544,23 +558,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>À Bruxelles
-Les jardins de l'Abbaye de la Cambre entre 1927 et 1935 pour l'exposition Universelle en 1935
+          <t>À Bruxelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jardins de l'Abbaye de la Cambre entre 1927 et 1935 pour l'exposition Universelle en 1935
 Les parcs et jardins sur le site de l'Exposition universelle de 1935, notamment le parc d'Osseghem.
 Le parc Tournay-Solvay à Watermael-Boitsfort (1911 et 1924)
 Le jardin de la maison de David et Alice Van Buuren, à Uccle (1924).
 			Théâtre de verdure du parc d'Osseghem
 			Jardin secret de la Villa Van Buuren
-En Brabant Wallon
-Source Meuwissen 1993[2].
-Le parc du «NeufBois»[3] dans la propriété d'Emile Henricot à Court-Saint-Étienne
-Le jardin de la «Villa des Hirondelles» à La Hulpe.
-En 1911, parc du comte Eugène Goblet d'Alviella à Court-Saint-Étienne
-Le parc de l'Etoile à Ottignies,
-Le parc de la famille Hulin à Rebecq
-Ailleurs
-Le parc du château de Ponthoz, pour le comte van der Straten Ponthoz, à Clavier
-Le parc du château de Réthy, à Réthy.</t>
+</t>
         </is>
       </c>
     </row>
@@ -585,10 +595,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Brabant Wallon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Source Meuwissen 1993.
+Le parc du «NeufBois» dans la propriété d'Emile Henricot à Court-Saint-Étienne
+Le jardin de la «Villa des Hirondelles» à La Hulpe.
+En 1911, parc du comte Eugène Goblet d'Alviella à Court-Saint-Étienne
+Le parc de l'Etoile à Ottignies,
+Le parc de la famille Hulin à Rebecq</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jules_Buyssens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_Buyssens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ailleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le parc du château de Ponthoz, pour le comte van der Straten Ponthoz, à Clavier
+Le parc du château de Réthy, à Réthy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jules_Buyssens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_Buyssens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Rayonnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">René Pechère (1908-2002) fut son élève.
 </t>
